--- a/sheets/Tresdiena.xlsx
+++ b/sheets/Tresdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BEBF8-CBC3-4F77-AA0F-2770392E6600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6745F75-9519-48FB-8B05-1685B56DB746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09398763-8927-4209-B9B3-A8A3519A9612}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <t>Mūzika / Ekonomika</t>
   </si>
   <si>
-    <t>Pirmdiena</t>
+    <t>Trešdiena</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF404DA-92C9-4753-AF00-FA95D6AA8D8B}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
